--- a/biology/Botanique/Syagrus_sancona/Syagrus_sancona.xlsx
+++ b/biology/Botanique/Syagrus_sancona/Syagrus_sancona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Syagrus sancona[1] est une espèce de  plantes à fleurs de la famille des palmiers (Arecaceae). C'est une espèce que l'on trouve au Brésil, en Bolivie, au Venezuela, en Colombie, en Équateur et au Pérou.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Syagrus sancona est une espèce de  plantes à fleurs de la famille des palmiers (Arecaceae). C'est une espèce que l'on trouve au Brésil, en Bolivie, au Venezuela, en Colombie, en Équateur et au Pérou.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palmier de stipe simple, lise, de 10 à 30 m d'hauteur et de 20 à 30 cm de diamètre. Il est considéré comme l'espèce la plus grande du genre Syagrus. Feuilles pennées avec de 9 à 18 pinnules ; ces Folioles sont disposées irrégulièrement sur le rachis par groupes de 2 à 5, formant plusieurs plans, ce qui donne un aspect plumeux caractéristique. Inflorescences à 80-200 branches. Fruits ellipsoïdes d'environ 3 cm de large. Il porte des fruits abondants entre juin et septembre. Un kilo de fruits contient environ 105 fruits et 200 graines. La germination a lieu 6 ou 8 mois après le semis. Pour accélérer le processus de germination, l'élimination du mésocarpe est suggérée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palmier de stipe simple, lise, de 10 à 30 m d'hauteur et de 20 à 30 cm de diamètre. Il est considéré comme l'espèce la plus grande du genre Syagrus. Feuilles pennées avec de 9 à 18 pinnules ; ces Folioles sont disposées irrégulièrement sur le rachis par groupes de 2 à 5, formant plusieurs plans, ce qui donne un aspect plumeux caractéristique. Inflorescences à 80-200 branches. Fruits ellipsoïdes d'environ 3 cm de large. Il porte des fruits abondants entre juin et septembre. Un kilo de fruits contient environ 105 fruits et 200 graines. La germination a lieu 6 ou 8 mois après le semis. Pour accélérer le processus de germination, l'élimination du mésocarpe est suggérée.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Brésil, dans l'état de Acre, dans la forêt amazonienne en des zones de terroir ferme de várzea. Il se distribue aussi en toute la région andine jusqu'à 1.200 m d'altitude et en zones basses adjacentes.
 </t>
@@ -573,7 +589,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les troncs sont utilisées en de nombreux endroits dans de petites constructions rurales et pour élaborer des conduites de l'eau. Ornemental, avec un grand potentiel pour une utilisation en aménagement paysager.
 </t>
@@ -604,12 +622,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scaphyglottis sancona a été décrite par Gustav Karl Wilhelm Hermann Karsten et publiée en Linnea 28: 247. 1857[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scaphyglottis sancona a été décrite par Gustav Karl Wilhelm Hermann Karsten et publiée en Linnea 28: 247. 1857.
 Étymologie
-Scaphyglottis: Nom générique qui provient du grec  skaphe, "concave ou creux", et glotta = "langue", en se rapportant au format de la lèvre ("labelle", en botanique) de ses fleurs[4].
-Syagrus : nom générique d'un type de palmier d’Amérique, apparemment utilisé par Pline, mais certainement pas pour les membres de ce genre du Nouveau Monde[5].
+Scaphyglottis: Nom générique qui provient du grec  skaphe, "concave ou creux", et glotta = "langue", en se rapportant au format de la lèvre ("labelle", en botanique) de ses fleurs.
+Syagrus : nom générique d'un type de palmier d’Amérique, apparemment utilisé par Pline, mais certainement pas pour les membres de ce genre du Nouveau Monde.
 Sancona : Cet épithète est une forme latinisée d'un nom aborigène pour cette espèce en Colombie.
 </t>
         </is>
